--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Exercise Files/Exercise03.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Exercise Files/Exercise03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{EEF104D2-C410-49CA-82C9-6E4F4AAC67B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29BFD93B-4514-4440-93D4-889D51665A04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E621AF-4E04-4B0C-A026-AA30F65871D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{9919AEEA-C113-48AF-88F9-E2A96D3A5CFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9919AEEA-C113-48AF-88F9-E2A96D3A5CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="E0301" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="47">
   <si>
     <t>Page, Lisa</t>
   </si>
@@ -205,9 +205,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -253,7 +253,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +278,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -299,11 +305,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -318,15 +324,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2 2" xfId="3" xr:uid="{5EFBDCE5-96A1-4686-9926-EFA28DBBBD4E}"/>
@@ -1019,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C652215-6FE1-4124-B49F-CFCC6CBD3241}">
-  <dimension ref="A1:M744"/>
+  <dimension ref="A1:O744"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,12 +1043,14 @@
     <col min="8" max="8" width="14.796875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15.19921875" style="4" customWidth="1"/>
     <col min="10" max="11" width="14.296875" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.796875" style="4"/>
+    <col min="12" max="12" width="14.09765625" style="4" customWidth="1"/>
     <col min="13" max="13" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="17.796875" style="4"/>
+    <col min="14" max="14" width="15.59765625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="17.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1049,7 +1058,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>22</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>38</v>
       </c>
@@ -1092,10 +1101,29 @@
       <c r="D4" s="14">
         <v>5401</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="str" cm="1">
+        <f t="array" ref="H4:K12">_xlfn._xlws.FILTER(A4:D27,B4:B27=F4,"No Records")</f>
+        <v>Japan</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J4" s="10">
+        <v>43075</v>
+      </c>
+      <c r="K4" s="10">
+        <v>5401</v>
+      </c>
+      <c r="N4" s="19" t="str" cm="1">
+        <f t="array" ref="N4:N7">_xlfn.UNIQUE(B4:B27,FALSE,FALSE)</f>
+        <v>Asia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1110,8 +1138,23 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J5" s="10">
+        <v>24733</v>
+      </c>
+      <c r="K5" s="10">
+        <v>5947</v>
+      </c>
+      <c r="N5" s="19" t="str">
+        <v>Europe</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -1126,8 +1169,23 @@
       </c>
       <c r="F6"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J6" s="10">
+        <v>48152</v>
+      </c>
+      <c r="K6" s="10">
+        <v>7000</v>
+      </c>
+      <c r="N6" s="19" t="str">
+        <v>North America</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
@@ -1142,12 +1200,27 @@
       </c>
       <c r="F7"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="4" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J7" s="10">
+        <v>89348</v>
+      </c>
+      <c r="K7" s="10">
+        <v>5395</v>
+      </c>
       <c r="M7" s="4" t="str" cm="1">
         <f t="array" ref="M7:M10">_xlfn.UNIQUE(B4:B27)</f>
         <v>Asia</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="19" t="str">
+        <v>Australasia</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -1162,11 +1235,23 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="4" t="str">
+        <v>India</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J8" s="10">
+        <v>77440</v>
+      </c>
+      <c r="K8" s="10">
+        <v>7722</v>
+      </c>
       <c r="M8" s="4" t="str">
         <v>Europe</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1181,11 +1266,23 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="4" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J9" s="10">
+        <v>69187</v>
+      </c>
+      <c r="K9" s="10">
+        <v>5056</v>
+      </c>
       <c r="M9" s="4" t="str">
         <v>North America</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1200,11 +1297,23 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="4" t="str">
+        <v>Japan</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J10" s="10">
+        <v>98589</v>
+      </c>
+      <c r="K10" s="10">
+        <v>8327</v>
+      </c>
       <c r="M10" s="4" t="str">
         <v>Australasia</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1219,8 +1328,20 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H11" s="4" t="str">
+        <v>India</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J11" s="10">
+        <v>38088</v>
+      </c>
+      <c r="K11" s="10">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1356,20 @@
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H12" s="4" t="str">
+        <v>India</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>Asia</v>
+      </c>
+      <c r="J12" s="10">
+        <v>59673</v>
+      </c>
+      <c r="K12" s="10">
+        <v>9662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
@@ -1251,7 +1384,7 @@
       </c>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1399,7 @@
       </c>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1413,7 @@
         <v>6911</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
@@ -5751,6 +5884,11 @@
       <c r="D744" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{3F016CC6-CF8A-45C4-B2F0-8F5CFF8A2505}">
+      <formula1>$N$4:$N$7</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5761,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3B29F9-399E-4DE1-A1DE-9DD7C2739EA1}">
   <dimension ref="A1:K744"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5832,8 +5970,22 @@
       <c r="E4" s="8">
         <v>8</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="G4" s="7" t="str" cm="1">
+        <f t="array" ref="G4:K27">_xlfn.SORTBY(A4:E27,D4:D27,1,E4:E27,1)</f>
+        <v>Spencer, Lucy</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1920</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J4" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -5851,8 +6003,21 @@
       <c r="E5" s="8">
         <v>6</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7" t="str">
+        <v>Tanner, Claire</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1789</v>
+      </c>
+      <c r="I5" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J5" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -5870,8 +6035,21 @@
       <c r="E6" s="8">
         <v>10</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7" t="str">
+        <v>Burton, Cam</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1958</v>
+      </c>
+      <c r="I6" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J6" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -5889,8 +6067,21 @@
       <c r="E7" s="8">
         <v>1</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="str">
+        <v>Wilkins, Jesse</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1997</v>
+      </c>
+      <c r="I7" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J7" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -5908,8 +6099,21 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="str">
+        <v>Todd, Steven</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1471</v>
+      </c>
+      <c r="I8" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J8" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -5927,8 +6131,21 @@
       <c r="E9" s="8">
         <v>4</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="str">
+        <v>Duran, Brian</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1491</v>
+      </c>
+      <c r="I9" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J9" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -5946,8 +6163,21 @@
       <c r="E10" s="8">
         <v>7</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7" t="str">
+        <v>Holland, Donald</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1090</v>
+      </c>
+      <c r="I10" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K10" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -5965,8 +6195,21 @@
       <c r="E11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="7" t="str">
+        <v>Page, Lisa</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1012</v>
+      </c>
+      <c r="I11" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K11" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -5984,8 +6227,21 @@
       <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7" t="str">
+        <v>Thornton, Charles</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1215</v>
+      </c>
+      <c r="I12" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K12" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -6003,6 +6259,21 @@
       <c r="E13" s="8">
         <v>9</v>
       </c>
+      <c r="G13" s="4" t="str">
+        <v>O'Connor, Kent</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1858</v>
+      </c>
+      <c r="I13" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <v>East Loop</v>
+      </c>
+      <c r="K13" s="4">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -6020,6 +6291,21 @@
       <c r="E14" s="8">
         <v>2</v>
       </c>
+      <c r="G14" s="4" t="str">
+        <v>McKenzie, Michelle</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1734</v>
+      </c>
+      <c r="I14" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -6037,6 +6323,21 @@
       <c r="E15" s="8">
         <v>9</v>
       </c>
+      <c r="G15" s="4" t="str">
+        <v>Taylor, Hector</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1228</v>
+      </c>
+      <c r="I15" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -6054,8 +6355,23 @@
       <c r="E16" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="str">
+        <v>Pratt, Erik</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1880</v>
+      </c>
+      <c r="I16" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>5</v>
       </c>
@@ -6071,8 +6387,23 @@
       <c r="E17" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="str">
+        <v>Phillips, Liesl</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1515</v>
+      </c>
+      <c r="I17" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -6088,8 +6419,23 @@
       <c r="E18" s="8">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="str">
+        <v>Rowe, Ken</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1701</v>
+      </c>
+      <c r="I18" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -6105,8 +6451,23 @@
       <c r="E19" s="8">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="str">
+        <v>Wiggins, Frank</v>
+      </c>
+      <c r="H19" s="4">
+        <v>1747</v>
+      </c>
+      <c r="I19" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K19" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>29</v>
       </c>
@@ -6122,8 +6483,23 @@
       <c r="E20" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="str">
+        <v>Brewer, Kent</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1230</v>
+      </c>
+      <c r="I20" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K20" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>9</v>
       </c>
@@ -6139,8 +6515,23 @@
       <c r="E21" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="str">
+        <v>Gallagher, Johnson</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1996</v>
+      </c>
+      <c r="I21" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J21" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -6156,8 +6547,23 @@
       <c r="E22" s="8">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="4" t="str">
+        <v>Dawson, Jonathan</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1743</v>
+      </c>
+      <c r="I22" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
@@ -6173,8 +6579,23 @@
       <c r="E23" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="str">
+        <v>Chase, Susan</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1383</v>
+      </c>
+      <c r="I23" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
@@ -6190,8 +6611,23 @@
       <c r="E24" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="str">
+        <v>White, Daniel</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1310</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K24" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
@@ -6207,8 +6643,23 @@
       <c r="E25" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="str">
+        <v>Weber, Larry</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1935</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
@@ -6224,8 +6675,23 @@
       <c r="E26" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="str">
+        <v>Strickland, Rajean</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1352</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K26" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>19</v>
       </c>
@@ -6241,36 +6707,51 @@
       <c r="E27" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" s="4" t="str">
+        <v>Wolf, Debbie</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1128</v>
+      </c>
+      <c r="I27" s="4" t="str">
+        <v>Full Marathon</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <v>West Loop</v>
+      </c>
+      <c r="K27" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
